--- a/Docs/ScenariosPassionFruit.xlsx
+++ b/Docs/ScenariosPassionFruit.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\SoftuniQA_Automation\GitHub TeamWork\Teamwork\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="7755"/>
   </bookViews>
@@ -90,9 +85,6 @@
   </si>
   <si>
     <t>1. Start Browser                                                                     2. Navigate to  URL http://localhost:60634/Account/Login            3. Enter user credentials                                                           4. Press button Login</t>
-  </si>
-  <si>
-    <t>Unsuccessful Login. An appropriate message is displayed</t>
   </si>
   <si>
     <t>Guest User tries to edit post</t>
@@ -201,6 +193,9 @@
   </si>
   <si>
     <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Check the user is logged     4. Click on Create button      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsuccessful Login. An appropriate message is displayed.  No email address entered, an appropriate message is displayed. No password entered, an appropriate message is displayed. Wrong email address fromat, an appropriate message is displayed. </t>
   </si>
 </sst>
 </file>
@@ -540,8 +535,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Хипервръзка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -839,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -984,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -996,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I6" s="10"/>
     </row>
@@ -1005,17 +1000,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -1024,17 +1019,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -1043,17 +1038,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="10"/>
     </row>
@@ -1062,17 +1057,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10"/>
     </row>
@@ -1081,17 +1076,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="10"/>
     </row>
@@ -1100,17 +1095,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -1119,17 +1114,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -1138,17 +1133,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="38"/>
     </row>
@@ -1157,17 +1152,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -1176,17 +1171,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -1195,17 +1190,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -1214,14 +1209,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="10"/>
